--- a/input_data/account summary.xlsx
+++ b/input_data/account summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ugyennorbu/Documents/Private Works/Shop accounts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ugyennorbu/Documents/GitHub/shop_account/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD98782A-412F-FD42-950D-F955E4568AF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49410D8D-3783-454F-892E-F718F00824DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="24660" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -75,6 +75,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -110,6 +117,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,13 +438,13 @@
   <dimension ref="A1:P393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -923,11 +931,11 @@
       <c r="A21" s="7">
         <v>43952</v>
       </c>
-      <c r="B21" s="8">
-        <v>81920</v>
+      <c r="B21" s="9">
+        <v>89830</v>
       </c>
-      <c r="C21" s="8">
-        <v>1181571.8999999999</v>
+      <c r="C21" s="9">
+        <v>1189481.8999999999</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -944,9 +952,15 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="7">
+        <v>43983</v>
+      </c>
+      <c r="B22" s="9">
+        <v>88942</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1278423.8999999999</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -962,9 +976,15 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="7">
+        <v>44013</v>
+      </c>
+      <c r="B23" s="9">
+        <v>92552</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1370975.9</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -980,9 +1000,15 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="7">
+        <v>44044</v>
+      </c>
+      <c r="B24" s="9">
+        <v>71109</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1442084.9</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -998,9 +1024,15 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="7">
+        <v>44075</v>
+      </c>
+      <c r="B25" s="9">
+        <v>69385</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1511469.9</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1017,7 +1049,6 @@
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
